--- a/data/trans_camb/P18_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>-12,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-10,01</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,08</t>
+          <t>-4,29; 5,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 6,95</t>
+          <t>-8,17; 1,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,38</t>
+          <t>-7,09; 2,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,81</t>
+          <t>-20,5; -6,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 1,05</t>
+          <t>-8,16; 5,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,47</t>
+          <t>-10,63; 0,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 7,5</t>
+          <t>-0,74; 8,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 10,64</t>
+          <t>-5,61; 3,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,77</t>
+          <t>-8,17; 1,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,95</t>
+          <t>-12,83; -2,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,99</t>
+          <t>-8,93; 1,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,22</t>
+          <t>-9,97; -0,17</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 5,06</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 1,31</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 0,33</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-14,22; -5,5</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; 1,23</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; -1,78</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>-15,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>-7,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-12,9%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-4,49%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-7,38%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 31,27</t>
+          <t>-5,2; 6,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 45,48</t>
+          <t>-9,81; 2,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 46,11</t>
+          <t>-8,41; 3,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,8; 93,73</t>
+          <t>-25,1; -8,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 4,79</t>
+          <t>-11,18; 8,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 22,11</t>
+          <t>-14,15; 0,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 30,69</t>
+          <t>-0,97; 11,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 43,83</t>
+          <t>-7,39; 4,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 8,41</t>
+          <t>-10,82; 1,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 23,99</t>
+          <t>-17,12; -3,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 28,79</t>
+          <t>-12,95; 2,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 54,3</t>
+          <t>-14,11; -0,25</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 6,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 1,71</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; 0,45</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-18,17; -7,23</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 1,8</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; -2,62</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-7,39</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-7,77</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-9,27</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-8,2</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,48</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-7,23</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-7,76</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-6,05</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
           <t>-0,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,25</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,68</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,98</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>12,95</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,36</t>
+          <t>-4,01; 7,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 9,83</t>
+          <t>-9,56; 1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 10,97</t>
+          <t>-11,49; 0,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 20,64</t>
+          <t>-13,3; -1,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,31</t>
+          <t>-15,8; 0,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,2</t>
+          <t>-10,24; 7,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 14,31</t>
+          <t>-4,92; 5,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 21,48</t>
+          <t>-9,19; 1,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,21</t>
+          <t>-14,69; -3,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,4</t>
+          <t>-13,77; -2,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 10,59</t>
+          <t>-12,22; 3,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 18,48</t>
+          <t>-8,76; 10,46</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 4,93</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 0,12</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; -3,49</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; -3,58</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 0,15</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 5,72</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>-4,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>78,39%</t>
+          <t>-8,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>65,1%</t>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-4,72%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-9,03%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-9,69%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-8,37%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-1,28%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,17; 45,09</t>
+          <t>-4,66; 9,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 67,87</t>
+          <t>-11,42; 1,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 74,76</t>
+          <t>-13,35; 1,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,09; 138,62</t>
+          <t>-15,75; -2,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 21,35</t>
+          <t>-20,34; 0,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 45,1</t>
+          <t>-13,77; 11,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 70,6</t>
+          <t>-6,18; 7,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 103,03</t>
+          <t>-11,6; 1,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 17,52</t>
+          <t>-18,52; -4,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 40,89</t>
+          <t>-17,43; -3,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 58,1</t>
+          <t>-17,17; 4,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,9; 97,72</t>
+          <t>-12,74; 17,54</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 6,39</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; 0,14</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-14,25; -4,49</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-14,81; -4,62</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-15,22; 0,27</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; 9,09</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-8,76</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-4,54</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,28</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-15,6</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,76</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,55</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-12,14</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 5,86</t>
+          <t>-6,47; 11,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 16,64</t>
+          <t>-15,97; 5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 10,66</t>
+          <t>-13,02; 6,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-27,18; 2,88</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 10,76</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 14,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 18,02</t>
+          <t>-8,49; 9,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-13,34; 4,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 0,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; -3,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 5,35</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 11,57</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 11,46</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 7,37</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; 2,26</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 1,02</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-21,83; -4,24</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,06%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-10,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-5,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-11,33%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-19,05%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-6,24%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>27,77%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>30,92%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-5,61%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-14,65%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,03; 46,27</t>
+          <t>-7,49; 14,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 136,63</t>
+          <t>-18,46; 6,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 91,12</t>
+          <t>-14,85; 7,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-31,32; 3,35</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-40,48; 72,68</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 98,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 130,82</t>
+          <t>-10,04; 11,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-15,28; 5,54</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-20,98; 0,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; -4,63</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-38,76; 37,9</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; 80,25</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 80,38</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 9,35</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-13,68; 2,84</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-14,05; 1,1</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-26,0; -5,39</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,1</t>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,9</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-9,38</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-4,87</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-4,16</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,09</t>
+          <t>-2,48; 4,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,83</t>
+          <t>-6,96; 0,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,63</t>
+          <t>-7,05; 0,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,22</t>
+          <t>-14,53; -5,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,39</t>
+          <t>-10,21; 0,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,57</t>
+          <t>-8,89; 0,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 9,35</t>
+          <t>-1,31; 4,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 13,16</t>
+          <t>-5,73; 0,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,07</t>
+          <t>-9,33; -3,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,92</t>
+          <t>-12,52; -5,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,64</t>
+          <t>-8,52; -0,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,25; 12,6</t>
+          <t>-8,32; 0,39</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 4,17</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; -0,76</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; -2,45</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; -6,7</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; -1,5</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; -1,07</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-4,09%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-12,03%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-5,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>-3,51%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>18,27%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>17,41%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>63,88%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-7,79%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>9,94%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>24,66%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>38,51%</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>-11,67%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,81%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-6,19%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-11,85%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-6,98%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-6,01%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 18,83</t>
+          <t>-2,95; 5,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 44,3</t>
+          <t>-8,27; 0,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 41,79</t>
+          <t>-8,39; 0,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37,93; 95,62</t>
+          <t>-17,45; -7,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 6,24</t>
+          <t>-13,51; 0,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 25,27</t>
+          <t>-11,98; 0,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,23; 42,31</t>
+          <t>-1,65; 6,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,95; 58,45</t>
+          <t>-7,47; 0,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 5,4</t>
+          <t>-12,16; -4,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 24,46</t>
+          <t>-16,24; -7,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,92; 33,8</t>
+          <t>-12,44; -1,04</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>32,84; 64,0</t>
+          <t>-12,13; 0,76</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,31</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; -0,97</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; -3,12</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; -8,53</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; -2,35</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; -1,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
